--- a/coling2016/props/Ebates-March-results.xlsx
+++ b/coling2016/props/Ebates-March-results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="630" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="630" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="14" r:id="rId1"/>
@@ -659,7 +659,7 @@
     <t>title words with breadcrumb leaves &amp; list prices [remove rare &amp; stop words]</t>
   </si>
   <si>
-    <t>title words with list prices [remove rare &amp; stop words</t>
+    <t>title words with list prices [remove rare &amp; stop words]</t>
   </si>
 </sst>
 </file>
@@ -2609,12 +2609,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-2003167048"/>
-        <c:axId val="-2145078280"/>
+        <c:axId val="-2078634056"/>
+        <c:axId val="-2072241320"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2003167048"/>
+        <c:axId val="-2078634056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2624,7 +2624,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2145078280"/>
+        <c:crossAx val="-2072241320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2632,7 +2632,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2145078280"/>
+        <c:axId val="-2072241320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="50000.0"/>
@@ -2670,13 +2670,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2003167048"/>
+        <c:crossAx val="-2078634056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
           <c:builtInUnit val="millions"/>
           <c:dispUnitsLbl>
-            <c:layout/>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -3316,11 +3315,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2075745304"/>
-        <c:axId val="-2075728104"/>
+        <c:axId val="-2078621896"/>
+        <c:axId val="-2017804920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2075745304"/>
+        <c:axId val="-2078621896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3357,7 +3356,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2075728104"/>
+        <c:crossAx val="-2017804920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3365,7 +3364,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2075728104"/>
+        <c:axId val="-2017804920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -3476,7 +3475,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2075745304"/>
+        <c:crossAx val="-2078621896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="4.0"/>
@@ -3598,7 +3597,7 @@
                   <c:v>title words with breadcrumb leaves [remove rare &amp; stop words]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>title words with list prices [remove rare &amp; stop words</c:v>
+                  <c:v>title words with list prices [remove rare &amp; stop words]</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>title words with breadcrumb leaves &amp; list prices [remove rare &amp; stop words]</c:v>
@@ -3683,7 +3682,7 @@
                   <c:v>title words with breadcrumb leaves [remove rare &amp; stop words]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>title words with list prices [remove rare &amp; stop words</c:v>
+                  <c:v>title words with list prices [remove rare &amp; stop words]</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>title words with breadcrumb leaves &amp; list prices [remove rare &amp; stop words]</c:v>
@@ -3728,11 +3727,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1989446200"/>
-        <c:axId val="-1989978856"/>
+        <c:axId val="-2076660056"/>
+        <c:axId val="-2072785048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1989446200"/>
+        <c:axId val="-2076660056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3759,14 +3758,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600">
+              <a:defRPr sz="1400">
                 <a:effectLst/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1989978856"/>
+        <c:crossAx val="-2072785048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3774,7 +3773,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1989978856"/>
+        <c:axId val="-2072785048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3799,13 +3798,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:effectLst>
-            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="43000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
@@ -3817,7 +3810,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1989446200"/>
+        <c:crossAx val="-2076660056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0"/>
@@ -4645,12 +4638,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-1991586008"/>
-        <c:axId val="-2075464888"/>
+        <c:axId val="2082087992"/>
+        <c:axId val="-2076691320"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-1991586008"/>
+        <c:axId val="2082087992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4659,7 +4652,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2075464888"/>
+        <c:crossAx val="-2076691320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4667,7 +4660,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2075464888"/>
+        <c:axId val="-2076691320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="50000.0"/>
@@ -4697,7 +4690,7 @@
             </a:outerShdw>
           </a:effectLst>
         </c:spPr>
-        <c:crossAx val="-1991586008"/>
+        <c:crossAx val="2082087992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -5277,11 +5270,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2133903864"/>
-        <c:axId val="-2075368200"/>
+        <c:axId val="-2077188664"/>
+        <c:axId val="-2072315688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2133903864"/>
+        <c:axId val="-2077188664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5290,7 +5283,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2075368200"/>
+        <c:crossAx val="-2072315688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5298,7 +5291,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2075368200"/>
+        <c:axId val="-2072315688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5308,7 +5301,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2133903864"/>
+        <c:crossAx val="-2077188664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -5512,12 +5505,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-2075433752"/>
-        <c:axId val="-2141042312"/>
-        <c:axId val="-2075426936"/>
+        <c:axId val="-2078751400"/>
+        <c:axId val="-2123014024"/>
+        <c:axId val="-1989493288"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-2075433752"/>
+        <c:axId val="-2078751400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5526,7 +5519,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2141042312"/>
+        <c:crossAx val="-2123014024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5534,7 +5527,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2141042312"/>
+        <c:axId val="-2123014024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5568,13 +5561,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2075433752"/>
+        <c:crossAx val="-2078751400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.002"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="-2075426936"/>
+        <c:axId val="-1989493288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5583,7 +5576,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2141042312"/>
+        <c:crossAx val="-2123014024"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -5809,12 +5802,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2082557384"/>
-        <c:axId val="-1991843368"/>
-        <c:axId val="-2075919912"/>
+        <c:axId val="-1989814536"/>
+        <c:axId val="-2072785560"/>
+        <c:axId val="-1989960152"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2082557384"/>
+        <c:axId val="-1989814536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5823,7 +5816,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1991843368"/>
+        <c:crossAx val="-2072785560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5831,7 +5824,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1991843368"/>
+        <c:axId val="-2072785560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5860,12 +5853,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2082557384"/>
+        <c:crossAx val="-1989814536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="-2075919912"/>
+        <c:axId val="-1989960152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5874,7 +5867,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1991843368"/>
+        <c:crossAx val="-2072785560"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -6104,11 +6097,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2076001560"/>
-        <c:axId val="-2075906632"/>
+        <c:axId val="-2122601000"/>
+        <c:axId val="-2072063672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2076001560"/>
+        <c:axId val="-2122601000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6141,7 +6134,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2075906632"/>
+        <c:crossAx val="-2072063672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6149,7 +6142,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2075906632"/>
+        <c:axId val="-2072063672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6192,7 +6185,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2076001560"/>
+        <c:crossAx val="-2122601000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0"/>
@@ -6763,11 +6756,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2075555864"/>
-        <c:axId val="-2075608008"/>
+        <c:axId val="-2078726792"/>
+        <c:axId val="2081739432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2075555864"/>
+        <c:axId val="-2078726792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6806,7 +6799,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2075608008"/>
+        <c:crossAx val="2081739432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6814,7 +6807,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2075608008"/>
+        <c:axId val="2081739432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -6857,7 +6850,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2075555864"/>
+        <c:crossAx val="-2078726792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0"/>
@@ -7095,12 +7088,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="-1991400088"/>
-        <c:axId val="-2076074984"/>
+        <c:axId val="-2124985032"/>
+        <c:axId val="-2073004920"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-1991400088"/>
+        <c:axId val="-2124985032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7133,7 +7126,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2076074984"/>
+        <c:crossAx val="-2073004920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7141,7 +7134,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2076074984"/>
+        <c:axId val="-2073004920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7172,20 +7165,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1991400088"/>
+        <c:crossAx val="-2124985032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
           <c:builtInUnit val="millions"/>
-          <c:dispUnitsLbl>
-            <c:layout/>
-          </c:dispUnitsLbl>
+          <c:dispUnitsLbl/>
         </c:dispUnits>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -7245,7 +7235,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7799,11 +7788,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2075737448"/>
-        <c:axId val="-2075818008"/>
+        <c:axId val="-2017829192"/>
+        <c:axId val="-2078302424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2075737448"/>
+        <c:axId val="-2017829192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7840,7 +7829,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2075818008"/>
+        <c:crossAx val="-2078302424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7848,7 +7837,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2075818008"/>
+        <c:axId val="-2078302424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -7959,7 +7948,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2075737448"/>
+        <c:crossAx val="-2017829192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="4.0"/>
@@ -11085,7 +11074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
@@ -12116,8 +12105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
